--- a/stock_list/sheet2.xlsx
+++ b/stock_list/sheet2.xlsx
@@ -163,10 +163,10 @@
     <t>High</t>
   </si>
   <si>
+    <t>RSI Cross - True</t>
+  </si>
+  <si>
     <t>RSI Cross - False</t>
-  </si>
-  <si>
-    <t>RSI Cross - True</t>
   </si>
   <si>
     <t>Price - True</t>
@@ -634,15 +634,15 @@
         <v>48.32</v>
       </c>
       <c r="G2" s="3">
-        <v>1020</v>
+        <v>1043.1</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I2" s="4">
-        <v>47.83</v>
-      </c>
-      <c r="J2" s="5" t="s">
+        <v>54.84</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -677,16 +677,16 @@
         <v>25.28</v>
       </c>
       <c r="G3" s="3">
-        <v>572.7</v>
+        <v>571</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="4">
-        <v>24.17</v>
+        <v>18.21</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>51</v>
@@ -718,15 +718,15 @@
         <v>54.11</v>
       </c>
       <c r="G4" s="3">
-        <v>726.1</v>
+        <v>743.8</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I4" s="4">
-        <v>48.47</v>
-      </c>
-      <c r="J4" s="5" t="s">
+        <v>54.78</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -759,16 +759,16 @@
         <v>57.75</v>
       </c>
       <c r="G5" s="3">
-        <v>764.1</v>
+        <v>761</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="4">
-        <v>55.77</v>
+        <v>55</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>51</v>
@@ -800,16 +800,16 @@
         <v>51.15</v>
       </c>
       <c r="G6" s="3">
-        <v>1184</v>
+        <v>1160.2</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="4">
-        <v>48.37</v>
+        <v>44.96</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>51</v>
@@ -841,16 +841,16 @@
         <v>69.7</v>
       </c>
       <c r="G7" s="3">
-        <v>5475</v>
+        <v>5403.55</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="5">
-        <v>75.31999999999999</v>
+      <c r="I7" s="4">
+        <v>72.18000000000001</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>51</v>
@@ -882,16 +882,16 @@
         <v>61.13</v>
       </c>
       <c r="G8" s="3">
-        <v>7790</v>
+        <v>7774.9</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I8" s="4">
-        <v>55.47</v>
+        <v>53.2</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>51</v>
@@ -923,16 +923,16 @@
         <v>57.73</v>
       </c>
       <c r="G9" s="3">
-        <v>3935</v>
+        <v>4039.05</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="I9" s="4">
-        <v>59.93</v>
+        <v>67.28</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>51</v>
@@ -964,16 +964,16 @@
         <v>47.05</v>
       </c>
       <c r="G10" s="3">
-        <v>379.15</v>
+        <v>377.3</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="4">
-        <v>47.22</v>
+        <v>52.73</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>51</v>
@@ -1004,17 +1004,17 @@
       <c r="F11" s="2">
         <v>32.96</v>
       </c>
-      <c r="G11" s="3">
-        <v>658.7</v>
+      <c r="G11" s="5">
+        <v>646.55</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="4">
-        <v>30.48</v>
+        <v>30.97</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>51</v>
@@ -1046,15 +1046,15 @@
         <v>51.08</v>
       </c>
       <c r="G12" s="3">
-        <v>876.05</v>
+        <v>890.85</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I12" s="4">
-        <v>49.15</v>
-      </c>
-      <c r="J12" s="5" t="s">
+        <v>53.74</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1086,17 +1086,17 @@
       <c r="F13" s="2">
         <v>63.19</v>
       </c>
-      <c r="G13" s="3">
-        <v>719.9</v>
+      <c r="G13" s="5">
+        <v>626.4</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I13" s="4">
-        <v>54.21</v>
+        <v>39.08</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>51</v>
